--- a/Aplicación/Datos/Datos NOAA Buoy Data/SOUTH SANTA ROSA/Correlaciones.xlsx
+++ b/Aplicación/Datos/Datos NOAA Buoy Data/SOUTH SANTA ROSA/Correlaciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\_____Publicaciones y Tesis\Aerogeneradores\Modelo Datos\Datos NOAA Buoy Data\SOUTH SANTA ROSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\_____Publicaciones y Tesis\Aerogeneradores\Modelo Datos\Aplicación\Datos\Datos NOAA Buoy Data\SOUTH SANTA ROSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{398C446F-EEC1-4FC5-9AAE-F73920DCEA31}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0F70A39-F790-4F4A-BF8A-55B1C94B85CC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{246B54E7-5A5F-45B8-A959-D9568FA482E6}"/>
   </bookViews>
@@ -52,7 +52,7 @@
     <t>MWD</t>
   </si>
   <si>
-    <t>WD</t>
+    <t>BAR</t>
   </si>
 </sst>
 </file>
@@ -410,136 +410,102 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>1.1310956809567983E-2</v>
       </c>
-      <c r="C2">
+      <c r="D3">
         <v>4.8783257022729835E-2</v>
       </c>
-      <c r="D2">
-        <v>-3.057040415387912E-3</v>
-      </c>
-      <c r="E2">
+      <c r="E3">
         <v>2.2968233742433133E-2</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>3.4372523946376903E-2</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>-1.3289602008282338E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4">
         <v>1.1310956809567981E-2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>9.891779886040232E-2</v>
       </c>
-      <c r="D3">
-        <v>-0.21407410304730651</v>
-      </c>
-      <c r="E3">
+      <c r="E4">
         <v>-0.59656789891563944</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>-0.22632850504173416</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>-0.35079291665582624</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5">
         <v>4.8783257022729835E-2</v>
       </c>
-      <c r="B4">
+      <c r="C5">
         <v>9.891779886040232E-2</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0.21193596087027028</v>
-      </c>
-      <c r="E4">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>0.3021231112638908</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>0.22502171968969395</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>-2.1605278393214161E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>-3.057040415387912E-3</v>
-      </c>
-      <c r="B5">
-        <v>-0.21407410304730648</v>
-      </c>
-      <c r="C5">
-        <v>0.21193596087027031</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0.63011213123276799</v>
-      </c>
-      <c r="F5">
-        <v>0.45230959997724296</v>
-      </c>
-      <c r="G5">
-        <v>0.23076584767785635</v>
-      </c>
-    </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B6">
         <v>2.2968233742433133E-2</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>-0.59656789891563933</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.30212311126389074</v>
-      </c>
-      <c r="D6">
-        <v>0.63011213123276799</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -552,17 +518,14 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="B7">
         <v>3.4372523946376903E-2</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>-0.22632850504173416</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.22502171968969395</v>
-      </c>
-      <c r="D7">
-        <v>0.45230959997724302</v>
       </c>
       <c r="E7">
         <v>0.33416509849213427</v>
@@ -575,17 +538,14 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="B8">
         <v>-1.3289602008282338E-2</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>-0.35079291665582624</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-2.1605278393214165E-2</v>
-      </c>
-      <c r="D8">
-        <v>0.23076584767785638</v>
       </c>
       <c r="E8">
         <v>0.28883183896294856</v>
@@ -610,136 +570,102 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>0.85001001724904346</v>
       </c>
-      <c r="C2">
+      <c r="D3">
         <v>0.41446724600451079</v>
       </c>
-      <c r="D2">
-        <v>0.95923903338310612</v>
-      </c>
-      <c r="E2">
+      <c r="E3">
         <v>0.70094899845301306</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>0.56541376924089171</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>0.82416681380294332</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4">
         <v>0.85001001724904346</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>9.7357378245475523E-2</v>
       </c>
-      <c r="D3">
-        <v>2.9344976436486935E-4</v>
-      </c>
-      <c r="E3">
+      <c r="E4">
         <v>1.424516524773828E-28</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>1.2623817120257271E-4</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>1.3760880004110547E-9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5">
         <v>0.41446724600451079</v>
       </c>
-      <c r="B4">
+      <c r="C5">
         <v>9.7357378245475523E-2</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>3.3837220298186177E-4</v>
-      </c>
-      <c r="E4">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>2.3117110774174513E-7</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>1.3842705716789121E-4</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>0.71791631655483323</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0.95923903338310612</v>
-      </c>
-      <c r="B5">
-        <v>2.9344976436486935E-4</v>
-      </c>
-      <c r="C5">
-        <v>3.3837220298186177E-4</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1.3076952467222167E-32</v>
-      </c>
-      <c r="F5">
-        <v>1.2587777737415392E-15</v>
-      </c>
-      <c r="G5">
-        <v>9.1945103700666531E-5</v>
-      </c>
-    </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B6">
         <v>0.70094899845301306</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>1.424516524773828E-28</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2.3117110774174513E-7</v>
-      </c>
-      <c r="D6">
-        <v>1.3076952467222167E-32</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -752,17 +678,14 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="B7">
         <v>0.56541376924089171</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>1.2623817120257271E-4</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1.3842705716789121E-4</v>
-      </c>
-      <c r="D7">
-        <v>1.2587777737415392E-15</v>
       </c>
       <c r="E7">
         <v>8.77358519251585E-9</v>
@@ -775,17 +698,14 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="B8">
         <v>0.82416681380294332</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>1.3760880004110547E-9</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.71791631655483323</v>
-      </c>
-      <c r="D8">
-        <v>9.1945103700666531E-5</v>
       </c>
       <c r="E8">
         <v>8.0425633689725255E-7</v>
